--- a/can_report.xlsx
+++ b/can_report.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CAN ID</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>CAN ID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Message Type</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
